--- a/pdb_impor.xlsx
+++ b/pdb_impor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{675B7A10-D860-6247-B7A0-962C6407416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7CF90720-1FC5-0845-9A6B-933147DB09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_impor" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="12" uniqueCount="12">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2" uniqueCount="2">
   <si>
     <t>Periode</t>
   </si>
   <si>
     <t>Nilai</t>
   </si>
-  <si>
-    <t>466058.32</t>
-  </si>
-  <si>
-    <t>392642.65</t>
-  </si>
-  <si>
-    <t>392576.99</t>
-  </si>
-  <si>
-    <t>452887.05</t>
-  </si>
-  <si>
-    <t>486613.87</t>
-  </si>
-  <si>
-    <t>517641.47</t>
-  </si>
-  <si>
-    <t>510150.16</t>
-  </si>
-  <si>
-    <t>586946.17</t>
-  </si>
-  <si>
-    <t>563853.79</t>
-  </si>
-  <si>
-    <t>581543.88</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -511,7 +485,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -554,12 +528,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -587,6 +563,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="42" builtinId="6"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -912,18 +889,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -931,80 +913,80 @@
       <c r="A2" s="1" t="d">
         <v>2020-03-01</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>466058.32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="d">
         <v>2020-06-01</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>392642.65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="d">
         <v>2020-09-01</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4" s="2">
+        <v>392576.99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="d">
         <v>2020-12-01</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="2">
+        <v>452887.05</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="d">
         <v>2021-03-01</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="2">
+        <v>486613.87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="d">
         <v>2021-06-01</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="2">
+        <v>517641.47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="d">
         <v>2021-09-01</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="2">
+        <v>510150.16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="d">
         <v>2021-12-01</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="2">
+        <v>586946.17000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="d">
         <v>2022-03-01</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>563853.79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="d">
         <v>2022-06-01</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="2">
+        <v>581543.88</v>
       </c>
     </row>
   </sheetData>

--- a/pdb_impor.xlsx
+++ b/pdb_impor.xlsx
@@ -1,57 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7CF90720-1FC5-0845-9A6B-933147DB09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D236081C-57D2-F146-90B1-9E3D2C4E809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_impor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Periode</t>
   </si>
   <si>
     <t>Nilai</t>
+  </si>
+  <si>
+    <t>466058.32</t>
+  </si>
+  <si>
+    <t>392642.65</t>
+  </si>
+  <si>
+    <t>392576.99</t>
+  </si>
+  <si>
+    <t>452887.05</t>
+  </si>
+  <si>
+    <t>486613.87</t>
+  </si>
+  <si>
+    <t>517641.47</t>
+  </si>
+  <si>
+    <t>510150.16</t>
+  </si>
+  <si>
+    <t>586946.17</t>
+  </si>
+  <si>
+    <t>563853.79</t>
+  </si>
+  <si>
+    <t>581543.88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -371,15 +381,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -387,8 +397,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -396,8 +406,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -405,12 +415,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -420,12 +430,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -435,8 +445,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -444,12 +454,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -459,12 +469,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -474,8 +484,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -485,7 +495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -528,14 +538,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -563,7 +571,6 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="42" builtinId="6"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -594,7 +601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -747,25 +754,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -773,25 +780,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -804,21 +811,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -832,7 +839,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -844,32 +851,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -889,104 +896,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.5" style="2" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="d">
-        <v>2020-03-01</v>
-      </c>
-      <c r="B2" s="2">
-        <v>466058.32</v>
+      <c r="A2" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="d">
-        <v>2020-06-01</v>
-      </c>
-      <c r="B3" s="2">
-        <v>392642.65</v>
+      <c r="A3" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="d">
-        <v>2020-09-01</v>
-      </c>
-      <c r="B4" s="2">
-        <v>392576.99</v>
+      <c r="A4" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="d">
-        <v>2020-12-01</v>
-      </c>
-      <c r="B5" s="2">
-        <v>452887.05</v>
+      <c r="A5" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="d">
-        <v>2021-03-01</v>
-      </c>
-      <c r="B6" s="2">
-        <v>486613.87</v>
+      <c r="A6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="d">
-        <v>2021-06-01</v>
-      </c>
-      <c r="B7" s="2">
-        <v>517641.47</v>
+      <c r="A7" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="d">
-        <v>2021-09-01</v>
-      </c>
-      <c r="B8" s="2">
-        <v>510150.16</v>
+      <c r="A8" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="d">
-        <v>2021-12-01</v>
-      </c>
-      <c r="B9" s="2">
-        <v>586946.17000000004</v>
+      <c r="A9" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="d">
-        <v>2022-03-01</v>
-      </c>
-      <c r="B10" s="2">
-        <v>563853.79</v>
+      <c r="A10" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="d">
-        <v>2022-06-01</v>
-      </c>
-      <c r="B11" s="2">
-        <v>581543.88</v>
+      <c r="A11" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
